--- a/20210824redcap_export.xlsx
+++ b/20210824redcap_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sackd/Box/Vanderbilt University/PhD/Publications/PPC Review/Full Text/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sackd/Documents/GitHub/postpartum_fp_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427415B-28B6-4047-BC15-7D13BBE20F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D54DA-CFD5-7B42-8A48-14D2CF28A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35820" yWindow="460" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35820" yWindow="460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CouplesbasedInterven_DATA_LABEL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1272">
   <si>
     <t>Record ID</t>
   </si>
@@ -3849,6 +3849,9 @@
   </si>
   <si>
     <t xml:space="preserve">Abdel-Tawab, 2008 - CAM </t>
+  </si>
+  <si>
+    <t>Some concerns: unclear extent of partner involvement versus family members</t>
   </si>
 </sst>
 </file>
@@ -4700,10 +4703,10 @@
   <dimension ref="A1:JH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="EM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BU11" sqref="BU11"/>
+      <selection pane="bottomRight" activeCell="ET7" sqref="ET7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8568,7 +8571,7 @@
         <v>868</v>
       </c>
       <c r="ET7" t="s">
-        <v>373</v>
+        <v>1271</v>
       </c>
       <c r="EU7" t="s">
         <v>319</v>
@@ -14172,11 +14175,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7975DA-E9B6-1D47-8357-C949D55EAB7E}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC17"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14604,7 +14607,7 @@
         <v>303</v>
       </c>
       <c r="M6" t="s">
-        <v>373</v>
+        <v>520</v>
       </c>
       <c r="N6" t="s">
         <v>303</v>
@@ -15442,7 +15445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847EB38B-B3BC-7440-B0A4-2A9DA1386492}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
